--- a/medicine/Enfance/Frédéric_Clément/Frédéric_Clément.xlsx
+++ b/medicine/Enfance/Frédéric_Clément/Frédéric_Clément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
+          <t>Frédéric_Clément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Clément, né le 13 février 1949[1], est un écrivain et illustrateur français.
-Il a notamment illustré et écrit plus d'une centaine de livres pour la jeunesse. Il a obtenu le Grand Prix de la Biennale d'illustration de Bratislava (BIB)[2] en 1985, Grand Prix international dont seulement trois français ont été lauréats, depuis la création de la Biennale en 1967, et depuis sa dernière édition en 2017[2]. Il est également lauréat d'un prix international à la Foire du livre de jeunesse de Bologne en 1996[3], le prix du livre jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Clément, né le 13 février 1949, est un écrivain et illustrateur français.
+Il a notamment illustré et écrit plus d'une centaine de livres pour la jeunesse. Il a obtenu le Grand Prix de la Biennale d'illustration de Bratislava (BIB) en 1985, Grand Prix international dont seulement trois français ont été lauréats, depuis la création de la Biennale en 1967, et depuis sa dernière édition en 2017. Il est également lauréat d'un prix international à la Foire du livre de jeunesse de Bologne en 1996, le prix du livre jeunesse.
 Selon les années, Frédéric Clément partage sa création entre des albums destinés à la jeunesse — texte et illustrations — et des romans pour un public adulte.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
+          <t>Frédéric_Clément</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Clément passe son enfance entre Paris, sur la Butte Montmartre, et la nature, autour de Blois et en Charente. De 1975 à 1980, il passe quelques années à dessiner pour des magazines Elle, Marie Claire, etc.
-Il illustre ensuite pour plusieurs maisons d’édition (École des Loisirs, Ipomée, Milan, Grasset, Albin Michel, etc.) une soixantaine d'albums pour la jeunesse avec lesquels il obtient de nombreux prix, dont le Grand Prix de la Biennale d'illustration de Bratislava (BIB)[2] en 1985, plusieurs prix graphiques en France et le prix international du livre jeunesse de la Foire du livre de jeunesse de Bologne en 1996[3] pour Magazin Zinzin (éditions Albin Michel pour la France, et traduit depuis à l'international) qui obtient également le prix France Télévision pour sa version française et d’autres prix pour les versions japonaise, allemande, hollandaise, chinoise.
+Il illustre ensuite pour plusieurs maisons d’édition (École des Loisirs, Ipomée, Milan, Grasset, Albin Michel, etc.) une soixantaine d'albums pour la jeunesse avec lesquels il obtient de nombreux prix, dont le Grand Prix de la Biennale d'illustration de Bratislava (BIB) en 1985, plusieurs prix graphiques en France et le prix international du livre jeunesse de la Foire du livre de jeunesse de Bologne en 1996 pour Magazin Zinzin (éditions Albin Michel pour la France, et traduit depuis à l'international) qui obtient également le prix France Télévision pour sa version française et d’autres prix pour les versions japonaise, allemande, hollandaise, chinoise.
 Depuis 1992 jusqu'à aujourd'hui, il réalise  des livres et albums pour la jeunesse en conjuguant ses propres textes et ses illustrations.
 Parallèlement à cette création de livres jeunesse, il explore pendant plusieurs années, pour les Éditions Albin Michel, avec ses textes et ses créations graphiques et photographiques, un genre nouveau : les « beaux livres fiction » pour adultes : Muséum, Le Galant de Paris, Bel Œil, confessions argentiques d'un gardien de phare.
 Sa création depuis 2007 se ponctue aussi de romans pour un public adulte. Ainsi, au printemps 2007, il publie Grains de beautés, et autres minuties d’un collectionneur de mouches, roman chez Actes Sud, et Le Paradisier, roman aux Éditions Le Castor Astral en 2010.
 Depuis 2009, il crée plusieurs albums jeunesse : Bashô, le fou de poésie, sur un texte de Françoise Kérisel, Botanique circus (2011), Lubie (2012), Monsieur Ravel rêve sur l'île d'Insomnie (2013), conte musical écrit, raconté et illustré par Frédéric Clément, Auriez-vous ça ? (2015), Métamorphoses (2015).
-Depuis l'automne 2015, il dirige et anime la galerie qu'il a créée, "La Cachotterie"[4], galerie d'arts minuscules, située à Cachan (Val-de-Marne).
+Depuis l'automne 2015, il dirige et anime la galerie qu'il a créée, "La Cachotterie", galerie d'arts minuscules, située à Cachan (Val-de-Marne).
 En 2016, sont publiés deux livres qu'il a écrits et illustrés : Parades, deuxième volet de ses documentaires poétiques (Métamorphoses est le premier), et Petite Touche.
 En 2016 et 2017, trois de ses livres voient leurs publications en Chine : Magasin Zinzin, Métamorphoses et Parades (Duku Publishing) ainsi qu'en Allemagne (Knesebeck Verlag) et en Russie.
 2019-2020 : Création de Muséum Rhapsodie, Lecture-Concert (musique et voix fr.C) du roman Muséum (Frédéric Clément, Ed. Ipomée-Albin Michel)
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
+          <t>Frédéric_Clément</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur-illustrateur
-L’Oiseleur de l’aube, Éd. Ipomée, Album jeunesse, 1981.
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’Oiseleur de l’aube, Éd. Ipomée, Album jeunesse, 1981.
 Plaine lune, Éd. Magnard, 1985.
 Le Livre épuisé, Éd. Ipomée, Éd. Albin Michel, Album jeunesse, 1995.
 Magasin zinzin, Éd. Ipomée-Albin Michel, 1995. Prix international du livre jeunesse  Bologne 1996. Traduit en japonais, anglais, allemand, néerlandais, chinois.
@@ -581,9 +600,43 @@
 Boutique Tic Tic  Temps précieux et souvenirs rares pour petits parents &amp; grands enfants : paru en 2018 aux Ed. Albin Michel
 Camouflages,  Ed. Le Seuil 2018
 Isidore Dé, Couturier des fées, 2021 aux Editions Saltimbanque
-Muséum, Petite collection d'ailes et d'âmes trouvées sur l'Amazone, re-parution 2022, La Cachotterie Édition.
-Illustrateur
-Le secret des mangeurs d'étoiles, texte de Christian Grenier, Illustrations intérieures de Mahmoud Lahbib, Couverture de Frédéric Clément, Éd. de l'Amitié, 1978
+Muséum, Petite collection d'ailes et d'âmes trouvées sur l'Amazone, re-parution 2022, La Cachotterie Édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_Clément</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le secret des mangeurs d'étoiles, texte de Christian Grenier, Illustrations intérieures de Mahmoud Lahbib, Couverture de Frédéric Clément, Éd. de l'Amitié, 1978
 L’Histoire d’Héliacynthe, texte de Nicole Maymat, Éd. Ipomée, 1979
 Bestiaire fabuleux, texte de Claire Méral et de Pierre Ferran, Magnard, 1983
 L'Histoire de Lilas, texte de Nicole Maymat, Éd. Ipomée, 1984.
@@ -604,9 +657,43 @@
 (en) Confucius, the golden rule, texte de Russell Freedman, La Joie de Lire, 2002. Publié aux États-Unis chez Arthur Levine/Penguin Publisher. L'album a obtenu plusieurs prix aux États-Unis : Orbis Pictus Honor Book 2003 et Parent’s Choice Recommended Award.
 Le Jeu des fleurs, Hanafuda, texte de Véronique Brindeau, Éd. Picquier, 2008.
 Bashô, le fou de poésie, texte de Françoise Kérisel, Éd. Albin Michel, 2009.
-L'Amour Fou, contes et légendes, texte de Ghislaine Roman, Ed. Saltimbanque, 2020
-Romans
-Muséum, petite collection d'ailes et d'âmes trouvées sur l'Amazone, roman illustré, Éd. Ipomée-Albin Michel, 1999
+L'Amour Fou, contes et légendes, texte de Ghislaine Roman, Ed. Saltimbanque, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frédéric_Clément</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Muséum, petite collection d'ailes et d'âmes trouvées sur l'Amazone, roman illustré, Éd. Ipomée-Albin Michel, 1999
 Le Galant de Paris, itinéraire élastique d'un amoureux transi, roman illustré, Éd. Albin Michel, 2003.
 Bel œil, confessions argentiques d'un gardien de phare, roman illustré de photographies, Éd. Albin Michel, 2005.
 Grains de Beautés, et autres minuties d’un collectionneur de mouches, roman, Éd. Actes Sud, 2007  (ISBN 978-2742767038).
@@ -616,36 +703,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frédéric_Clément</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand Prix de la Biennale d'illustration de Bratislava (BIB) 1985[2] pour Bestiaire fabuleux (texte de Claire Méral et de Pierre Ferran)
- "Mention" Prix du livre jeunesse de la Foire internationale du livre jeunesse de Bologne 1987[5] pour Le peintre et les cygnes sauvages, texte de Claude Clément.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand Prix de la Biennale d'illustration de Bratislava (BIB) 1985 pour Bestiaire fabuleux (texte de Claire Méral et de Pierre Ferran)
+ "Mention" Prix du livre jeunesse de la Foire internationale du livre jeunesse de Bologne 1987 pour Le peintre et les cygnes sauvages, texte de Claude Clément.
 Prix Sorcières 1989 (prix des librairies spécialisées jeunesse) pour Le Luthier de Venise (texte de Claude Clément) (livre sélectionné pour le cycle 3 par le ministère de l’Éducation nationale)
- Prix du livre jeunesse de la Foire internationale du livre jeunesse de Bologne en 1996[3] pour Magazin zinzin (livre sélectionné et recommandé en cycle 3 par le ministère de l’Éducation nationale)
+ Prix du livre jeunesse de la Foire internationale du livre jeunesse de Bologne en 1996 pour Magazin zinzin (livre sélectionné et recommandé en cycle 3 par le ministère de l’Éducation nationale)
 Sélection et recommandation du ministère de l’Éducation nationale en cycle 3 pour Bashô, le fou de poésie (Éd. Albin Michel)
 Sélection aux Pépites du livre d'art du Salon du livre jeunesse pour Lubie (Éd. Albin Michel) en 2012
 Au Japon
@@ -654,31 +743,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frédéric_Clément</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_Cl%C3%A9ment</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Frédéric Clément expose régulièrement les illustrations originales de ses livres dans des institutions culturelles et bibliothèques, comme par exemple, les médiathèques de Saint-Brieuc, de Langueux, de Brive, d'Amiens, de Vendôme, de Combs-la-Ville, IUFM de Nancy…
 Il expose presque annuellement à Paris à la galerie-agence L'Art à la page, qui organise en France et autres pays des expositions de ses originaux.
